--- a/biology/Zoologie/Eresia_nauplius/Eresia_nauplius.xlsx
+++ b/biology/Zoologie/Eresia_nauplius/Eresia_nauplius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eresia nauplius est une espèce d'insecte lépidoptère de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Eresia.
 </t>
@@ -511,13 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresia nauplius a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom iniital de Papilio nauplius[1].
-Synonymie
-Papilio nauplius (Linné, 1758) Protonyme
-Noms vernaculaires
-Eresia nauplius se nomme Nauplius Crescent en anglais et Eresia nauplius plagiata se nomme Peruvian Crescent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia nauplius a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom iniital de Papilio nauplius.
 </t>
         </is>
       </c>
@@ -543,48 +553,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio nauplius (Linné, 1758) Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia nauplius se nomme Nauplius Crescent en anglais et Eresia nauplius plagiata se nomme Peruvian Crescent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces :
 Eresia nauplius nauplius; présent en Guyane, Guyana, au Surinam et au Brésil.
 Eresia nauplius extensa (Hall, 1929) ; présent au Brésil
 Synonymie pour cette sous-espèce
-Phyciodes nauplia extensa (Hall, 1929)[4]
+Phyciodes nauplia extensa (Hall, 1929)
 Eresia nauplius plagiata (Röber, 1913) ; présent au Brésil, en Colombie, en Bolivie, en Équateur et au Pérou
 Synonymie pour cette sous-espèce
-Phyciodes nauplia plagiata (Röber, 1913)[5]
-Eresia plagiata (Higgins, 1981)[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Phyciodes nauplia plagiata (Röber, 1913)
+Eresia plagiata (Higgins, 1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eresia nauplius est un papillon aux ailes antérieures arrondies et allongées au dessus blanc très largement bordé de noir et avec une partie basale noire plus aux ailes antérieures une bande noire séparant l'apex du reste de l'aile.
 Le revers est plus clair blanc cerné suivant la même ornementation de marron gris doublé de jaune orangé.
@@ -592,67 +679,109 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresia nauplius est présent en Guyane, Guyana, au Surinam, au Brésil, en Colombie, en Équateur et au Pérou[3].
-Biotope
-Eresia nauplius réside sur les lisières, les clairières les bordures de routes[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia nauplius est présent en Guyane, Guyana, au Surinam, au Brésil, en Colombie, en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresia nauplius réside sur les lisières, les clairières les bordures de routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia_nauplius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
